--- a/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
+++ b/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18075" windowHeight="9465"/>
+    <workbookView xWindow="-5475" yWindow="135" windowWidth="18075" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Medications" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
   <si>
     <t>TTY Code</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Lactated Ringer's Solution</t>
-  </si>
-  <si>
-    <t>Parenteral Solutions Name</t>
   </si>
   <si>
     <t>To specify topical use vs parenteral.</t>
@@ -439,30 +436,12 @@
     <t>dextrose 10 % Injectable Solution</t>
   </si>
   <si>
-    <t>Clarification:  D10</t>
-  </si>
-  <si>
     <t>dextrose 250 MG/ML Injectable Solution</t>
   </si>
   <si>
     <t>dextrose 50 % Injectable Solution</t>
   </si>
   <si>
-    <t>Clarification:  D25</t>
-  </si>
-  <si>
-    <t>Clarification:  D50</t>
-  </si>
-  <si>
-    <t>Clarification:  D5W</t>
-  </si>
-  <si>
-    <t>Clarification:  Epi 1:10,000</t>
-  </si>
-  <si>
-    <t>Clarification:  Epi 1:1,000</t>
-  </si>
-  <si>
     <t>Epinephrine 1 mg/ml</t>
   </si>
   <si>
@@ -472,32 +451,65 @@
     <t>Sugar based solution given in any oral form or by mouth.</t>
   </si>
   <si>
+    <t>NaCl 0.513 MEQ/ML Injectable Solution</t>
+  </si>
+  <si>
+    <t>NaCl 0.154 MEQ/ML Injectable Solution</t>
+  </si>
+  <si>
+    <t>NaCl 0.0769 MEQ/ML Injectable Solution</t>
+  </si>
+  <si>
+    <t>Potassium Iodide</t>
+  </si>
+  <si>
+    <t>Parenteral Solutions RxNorm Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarification:  D5W; 
+EMS Use:  Dextrose 5% Infusion Solution </t>
+  </si>
+  <si>
+    <t>Hydrocortisone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarification:  NS 0.9%; 
+AKA: Sodium Chloride 0.9% Injectable Solution; 
+EMS Use: NS 0.9% Infusion Solution </t>
+  </si>
+  <si>
     <t>Clarification:  NS 0.45%; 
-AKA:  Sodium Chloride 0.45% Injectable Solution</t>
-  </si>
-  <si>
-    <t>Clarification:  NS 0.9%; 
-AKA: Sodium Chloride 0.9% Injectable Solution</t>
-  </si>
-  <si>
-    <t>NaCl 0.513 MEQ/ML Injectable Solution</t>
-  </si>
-  <si>
-    <t>NaCl 0.154 MEQ/ML Injectable Solution</t>
-  </si>
-  <si>
-    <t>NaCl 0.0769 MEQ/ML Injectable Solution</t>
-  </si>
-  <si>
-    <t>Clarification:  1) NS 0.3%; 2) Included for changing resuscitation guidelines and research. 
-AKA: Sodium Chloride 3% Injectable Solution</t>
-  </si>
-  <si>
-    <t>Potassium Iodide</t>
+AKA:  Sodium Chloride 0.45% Injectable Solution; 
+EMS Use (Option 1):  NS 0.45% Infusion Solution; 
+EMS Use (Option 2):  1/2 Normal Saline Infusion Solution</t>
   </si>
   <si>
     <t>Explanation of Inclusion 
-(Reason for inclusion, Clarification, or Other RxNorm Name [AKA])</t>
+(Reason for inclusion, Clarification, Other RxNorm Name [AKA], or EMS Use naming option)</t>
+  </si>
+  <si>
+    <t>Explanation of Inclusion 
+(Reason for inclusion, Clarification,  Other RxNorm Name [AKA], or EMS Use naming option)</t>
+  </si>
+  <si>
+    <t>Clarification &amp; EMS Use:  D10</t>
+  </si>
+  <si>
+    <t>Clarification &amp; EMS Use:  D25</t>
+  </si>
+  <si>
+    <t>Clarification &amp; EMS Use:  D50</t>
+  </si>
+  <si>
+    <t>Clarification &amp; EMS Use:  Epi 1:10,000</t>
+  </si>
+  <si>
+    <t>Clarification &amp; EMS Use:  Epi 1:1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarification:  1) NS 0.3%; 2) Included for changing resuscitation guidelines and research.  
+AKA:  Sodium Chloride 3% Injectable Solution; 
+EMS Use:  NaCl 3% Injectable Solution </t>
   </si>
 </sst>
 </file>
@@ -637,10 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,6 +661,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,97 +971,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1057,1334 +1069,1346 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="C52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="C53" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="C54" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="C55" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="C56" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+      <c r="C57" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="C58" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="C59" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="C60" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+      <c r="C61" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="C62" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+      <c r="C63" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C64" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="D65" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="C66" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+      <c r="C67" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+      <c r="C68" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+      <c r="C69" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+      <c r="C70" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+      <c r="C71" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+      <c r="C72" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+      <c r="C73" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="C74" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+      <c r="C75" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+      <c r="C76" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="18" t="s">
+      <c r="C77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+      <c r="C78" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
+      <c r="C79" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
+      <c r="C80" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16">
+      <c r="C81" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C82" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
+      <c r="C83" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+      <c r="C84" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="16">
+      <c r="C85" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+      <c r="C86" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
+      <c r="C87" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="C88" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
+      <c r="C89" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+      <c r="C90" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+      <c r="C91" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="16">
+      <c r="C92" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="16">
+      <c r="C94" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="16">
+      <c r="C95" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
+      <c r="C96" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>95</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
+      <c r="C97" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="16">
+      <c r="C98" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+      <c r="C99" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
+      <c r="C100" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="16">
+      <c r="C101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>100</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="16">
+      <c r="C102" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>101</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+      <c r="C103" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>102</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="16">
+      <c r="C104" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>103</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="16">
+      <c r="C105" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <v>104</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
+      <c r="C106" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="16">
+      <c r="C107" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
+        <v>106</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="16">
+      <c r="C108" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="16">
+      <c r="C109" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
+        <v>108</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="16">
+      <c r="C110" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>109</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="16">
+      <c r="C111" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
+        <v>110</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="16">
+      <c r="C112" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <v>111</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="16">
+      <c r="C113" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>112</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="16">
+      <c r="C114" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <v>113</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="16">
+      <c r="C115" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
+        <v>114</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="16">
+      <c r="C116" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <v>115</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="16">
-        <v>114</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="3"/>
+      <c r="C117" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2403,105 +2427,105 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
+++ b/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-5475" yWindow="135" windowWidth="18075" windowHeight="9405"/>
+    <workbookView xWindow="-5475" yWindow="195" windowWidth="18075" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Medications" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="150">
   <si>
     <t>TTY Code</t>
   </si>
@@ -510,6 +510,9 @@
     <t xml:space="preserve">Clarification:  1) NS 0.3%; 2) Included for changing resuscitation guidelines and research.  
 AKA:  Sodium Chloride 3% Injectable Solution; 
 EMS Use:  NaCl 3% Injectable Solution </t>
+  </si>
+  <si>
+    <t>Hydralazine</t>
   </si>
 </sst>
 </file>
@@ -971,11 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>2</v>
@@ -1615,7 +1618,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>2</v>
@@ -1627,7 +1630,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>2</v>
@@ -1639,7 +1642,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>2</v>
@@ -1651,7 +1654,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>2</v>
@@ -1663,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>2</v>
@@ -1675,7 +1678,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>2</v>
@@ -1687,7 +1690,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>2</v>
@@ -1699,7 +1702,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>2</v>
@@ -1711,7 +1714,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>2</v>
@@ -1723,7 +1726,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>2</v>
@@ -1735,7 +1738,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>2</v>
@@ -1747,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>2</v>
@@ -1759,27 +1762,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,19 +1788,21 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>2</v>
@@ -1811,7 +1814,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>2</v>
@@ -1823,7 +1826,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>2</v>
@@ -1835,7 +1838,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>2</v>
@@ -1847,7 +1850,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>2</v>
@@ -1859,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>2</v>
@@ -1871,7 +1874,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>2</v>
@@ -1883,7 +1886,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>2</v>
@@ -1895,7 +1898,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>2</v>
@@ -1907,7 +1910,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>2</v>
@@ -1919,10 +1922,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3"/>
     </row>
@@ -1931,31 +1934,31 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>2</v>
@@ -1967,45 +1970,45 @@
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>2</v>
@@ -2017,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>2</v>
@@ -2029,7 +2032,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>2</v>
@@ -2041,7 +2044,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>2</v>
@@ -2053,7 +2056,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>2</v>
@@ -2065,7 +2068,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>2</v>
@@ -2077,7 +2080,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>2</v>
@@ -2089,55 +2092,55 @@
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>135</v>
+      <c r="B93" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>92</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>90</v>
+      <c r="B94" t="s">
+        <v>135</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>2</v>
@@ -2149,7 +2152,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>2</v>
@@ -2161,7 +2164,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>2</v>
@@ -2173,7 +2176,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>2</v>
@@ -2185,7 +2188,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>2</v>
@@ -2197,7 +2200,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>2</v>
@@ -2209,7 +2212,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>2</v>
@@ -2221,7 +2224,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>2</v>
@@ -2233,10 +2236,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D103" s="3"/>
     </row>
@@ -2245,10 +2248,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D104" s="3"/>
     </row>
@@ -2257,7 +2260,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>2</v>
@@ -2269,7 +2272,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>2</v>
@@ -2281,33 +2284,33 @@
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>2</v>
@@ -2319,7 +2322,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>2</v>
@@ -2331,7 +2334,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>2</v>
@@ -2343,7 +2346,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>2</v>
@@ -2355,7 +2358,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>2</v>
@@ -2367,7 +2370,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>2</v>
@@ -2379,7 +2382,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>2</v>
@@ -2391,7 +2394,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>2</v>
@@ -2403,12 +2406,24 @@
         <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>116</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="3"/>
+      <c r="C118" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
+++ b/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="160">
   <si>
     <t>TTY Code</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Albumin Human, USP</t>
   </si>
   <si>
-    <t>To cover one aspect of blood products.</t>
-  </si>
-  <si>
     <t>Albuterol</t>
   </si>
   <si>
@@ -362,25 +359,7 @@
     <t>Ziprasidone</t>
   </si>
   <si>
-    <t xml:space="preserve">Medication </t>
-  </si>
-  <si>
-    <t>To be used for parenteral administration.</t>
-  </si>
-  <si>
-    <t>To be used for irrigation: burns, eyes, etc.</t>
-  </si>
-  <si>
-    <t>Included for irrigation.</t>
-  </si>
-  <si>
     <t>Lactated Ringer's Solution</t>
-  </si>
-  <si>
-    <t>To specify topical use vs parenteral.</t>
-  </si>
-  <si>
-    <t>Topical Hemostatic Agent - Chitosan based.</t>
   </si>
   <si>
     <t xml:space="preserve">Glucose </t>
@@ -430,9 +409,6 @@
     </r>
   </si>
   <si>
-    <t>For use for burns, dehydration, fluid replacement</t>
-  </si>
-  <si>
     <t>dextrose 10 % Injectable Solution</t>
   </si>
   <si>
@@ -448,9 +424,6 @@
     <t>Epinephrine 0.1mg/ml</t>
   </si>
   <si>
-    <t>Sugar based solution given in any oral form or by mouth.</t>
-  </si>
-  <si>
     <t>NaCl 0.513 MEQ/ML Injectable Solution</t>
   </si>
   <si>
@@ -463,56 +436,135 @@
     <t>Potassium Iodide</t>
   </si>
   <si>
-    <t>Parenteral Solutions RxNorm Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarification:  D5W; 
-EMS Use:  Dextrose 5% Infusion Solution </t>
-  </si>
-  <si>
     <t>Hydrocortisone</t>
   </si>
   <si>
-    <t xml:space="preserve">Clarification:  NS 0.9%; 
-AKA: Sodium Chloride 0.9% Injectable Solution; 
-EMS Use: NS 0.9% Infusion Solution </t>
-  </si>
-  <si>
-    <t>Clarification:  NS 0.45%; 
-AKA:  Sodium Chloride 0.45% Injectable Solution; 
-EMS Use (Option 1):  NS 0.45% Infusion Solution; 
-EMS Use (Option 2):  1/2 Normal Saline Infusion Solution</t>
-  </si>
-  <si>
-    <t>Explanation of Inclusion 
-(Reason for inclusion, Clarification, Other RxNorm Name [AKA], or EMS Use naming option)</t>
-  </si>
-  <si>
-    <t>Explanation of Inclusion 
-(Reason for inclusion, Clarification,  Other RxNorm Name [AKA], or EMS Use naming option)</t>
-  </si>
-  <si>
-    <t>Clarification &amp; EMS Use:  D10</t>
-  </si>
-  <si>
-    <t>Clarification &amp; EMS Use:  D25</t>
-  </si>
-  <si>
-    <t>Clarification &amp; EMS Use:  D50</t>
-  </si>
-  <si>
-    <t>Clarification &amp; EMS Use:  Epi 1:10,000</t>
-  </si>
-  <si>
-    <t>Clarification &amp; EMS Use:  Epi 1:1,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarification:  1) NS 0.3%; 2) Included for changing resuscitation guidelines and research.  
-AKA:  Sodium Chloride 3% Injectable Solution; 
-EMS Use:  NaCl 3% Injectable Solution </t>
-  </si>
-  <si>
     <t>Hydralazine</t>
+  </si>
+  <si>
+    <t>dextrose 5 % Injectable Solution</t>
+  </si>
+  <si>
+    <t>Epi 1:10,000</t>
+  </si>
+  <si>
+    <t>Epi 1:1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS 0.9% Infusion Solution </t>
+  </si>
+  <si>
+    <t>NaCl 3% Injectable Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dextrose 5% Infusion Solution </t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEMSIS Version 3 - Medication Given (by EMS)
+Example EMS Descriptor </t>
+  </si>
+  <si>
+    <t>Clar: Sugar based solution given in any oral form or by mouth.</t>
+  </si>
+  <si>
+    <t>Clar: To be used for parenteral administration.</t>
+  </si>
+  <si>
+    <t>Clar: To specify topical use vs parenteral.</t>
+  </si>
+  <si>
+    <t>Clar: To be used for irrigation: burns, eyes, etc.</t>
+  </si>
+  <si>
+    <t>Clar: Included for irrigation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NEMSIS Version 3 - Medication Given (by EMS) 
+Explanation of Inclusion or Clarification
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clar: A clarification for code inclusion and/or intended use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NEMSIS Version 3 - Medication Given (by EMS) 
+Explanation of Inclusion or Clarification
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clar: A clarification for code inclusion and/or intended use. 
+SYN: The RxNorm synonym for the description.</t>
+    </r>
+  </si>
+  <si>
+    <t>Clar: NS 0.45%; 
+AKA: Sodium Chloride 0.45% Injectable Solution</t>
+  </si>
+  <si>
+    <t>Clar: For use for burns, dehydration, fluid replacement</t>
+  </si>
+  <si>
+    <t>Clar: NS 0.9%; 
+AKA: Sodium Chloride 0.9% Injectable Solution</t>
+  </si>
+  <si>
+    <t>Clar: NS 0.3% (1); Included for changing resuscitation guidelines and research (2).  
+AKA: Sodium Chloride 3% Injectable Solution</t>
+  </si>
+  <si>
+    <t>Clar: D5W</t>
+  </si>
+  <si>
+    <t>NS 0.45% Infusion Solution (1);  
+1/2 Normal Saline Infusion Solution (2)</t>
+  </si>
+  <si>
+    <t>RxNorm Description</t>
+  </si>
+  <si>
+    <t>Clar: Topical Hemostatic Agent - Chitosan based.</t>
+  </si>
+  <si>
+    <t>Clar: To cover one aspect of blood products.</t>
+  </si>
+  <si>
+    <t>Clar: D10</t>
+  </si>
+  <si>
+    <t>Clar: D25</t>
+  </si>
+  <si>
+    <t>Clar: D50</t>
+  </si>
+  <si>
+    <t>Clar: Epi 1:10,000</t>
+  </si>
+  <si>
+    <t>Clar: Epi 1:1,000</t>
   </si>
 </sst>
 </file>
@@ -568,15 +620,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -621,11 +679,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,10 +735,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,29 +1071,33 @@
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1020,8 +1108,9 @@
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1032,8 +1121,9 @@
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1044,8 +1134,9 @@
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1056,8 +1147,9 @@
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1068,1362 +1160,1484 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="24"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="24"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>72</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>73</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>75</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>77</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>78</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>79</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>80</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>81</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>82</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>83</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>84</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>85</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>86</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>87</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>88</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>89</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>90</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>91</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>93</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>94</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>95</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>97</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>98</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>100</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="24"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>101</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>102</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>103</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="24"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>104</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="24"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>105</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>106</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>108</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="24"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>109</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="24"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="24"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>111</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>112</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="24"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>114</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="24"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>116</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="3"/>
+      <c r="E118" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2439,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,96 +2665,123 @@
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="C4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
+++ b/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\jehlers\v3 Suggested Lists\Final Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\jehlers\v3.5.0 Suggested Lists\Final Lists v3.5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E02FB91-B9B5-4194-8A08-9EA204B1BEBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7985221B-26CB-42B1-A37B-482A8539C057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="144">
   <si>
     <t>NOTES</t>
   </si>
@@ -396,13 +396,67 @@
     <t>EMS DESCRIPTION (Brand Name)</t>
   </si>
   <si>
-    <t>FREQUENCY*</t>
-  </si>
-  <si>
     <t>Date Range Evaluated: 01/01/2017 through 07/09/2019</t>
   </si>
   <si>
     <t>eMedications.03: Medication Given Suggested List</t>
+  </si>
+  <si>
+    <t>Updated 10/2019</t>
+  </si>
+  <si>
+    <t>SNOMED</t>
+  </si>
+  <si>
+    <t>SNOMED Description</t>
+  </si>
+  <si>
+    <t>Administration of blood product</t>
+  </si>
+  <si>
+    <t>Transfusion of cryoprecipitate</t>
+  </si>
+  <si>
+    <t>Administration of albumin</t>
+  </si>
+  <si>
+    <t>Intravenous blood transfusion of platelets</t>
+  </si>
+  <si>
+    <t>Transfusion of whole blood</t>
+  </si>
+  <si>
+    <t>Transfusion of packed red blood cells</t>
+  </si>
+  <si>
+    <t>ALLOWABLE SNOMED CODES</t>
+  </si>
+  <si>
+    <t>Blood product</t>
+  </si>
+  <si>
+    <t>Whole blood</t>
+  </si>
+  <si>
+    <t>Cryoprecipitate</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Packed red blood cells (RBC)</t>
+  </si>
+  <si>
+    <t>Transfusion of fresh frozen plasma </t>
+  </si>
+  <si>
+    <t>Fresh frozen plasma (FFP)</t>
+  </si>
+  <si>
+    <t>EMS DESCRIPTION (Acronym)</t>
   </si>
 </sst>
 </file>
@@ -412,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +637,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -765,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -889,6 +951,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -941,14 +1040,12 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -991,9 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1010,22 +1104,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1354,1318 +1476,1153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="57.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="82.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="82.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="34"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="21"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="29"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>161</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>36081</v>
       </c>
-      <c r="E7" s="37">
-        <f>D7/$D$70</f>
-        <v>1.7320547206591918E-3</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>296</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <f>71770+5975</f>
         <v>77745</v>
       </c>
-      <c r="E8" s="37">
-        <f t="shared" ref="E8:E69" si="0">D8/$D$70</f>
-        <v>3.7321192388694567E-3</v>
-      </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>435</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>1632400</v>
       </c>
-      <c r="E9" s="37">
-        <f t="shared" si="0"/>
-        <v>7.8362742884179062E-2</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>214199</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>235954</v>
       </c>
-      <c r="E10" s="37">
-        <f t="shared" si="0"/>
-        <v>1.1326882280380781E-2</v>
-      </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>703</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>186672</v>
       </c>
-      <c r="E11" s="37">
-        <f t="shared" si="0"/>
-        <v>8.9611185614282482E-3</v>
-      </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>1191</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>1736127</v>
       </c>
-      <c r="E12" s="37">
-        <f t="shared" si="0"/>
-        <v>8.3342118178927435E-2</v>
-      </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>1223</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>114694</v>
       </c>
-      <c r="E13" s="37">
-        <f t="shared" si="0"/>
-        <v>5.5058419703246956E-3</v>
-      </c>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>1901</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>53253</v>
       </c>
-      <c r="E14" s="37">
-        <f t="shared" si="0"/>
-        <v>2.5563900678823742E-3</v>
-      </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>1908</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>10483</v>
       </c>
-      <c r="E15" s="37">
-        <f t="shared" si="0"/>
-        <v>5.0323243914166199E-4</v>
-      </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>2193</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <f>10831+7731</f>
         <v>18562</v>
       </c>
-      <c r="E16" s="37">
-        <f t="shared" si="0"/>
-        <v>8.9106177004173715E-4</v>
-      </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>3264</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>78697</v>
       </c>
-      <c r="E17" s="37">
-        <f t="shared" si="0"/>
-        <v>3.7778196378070567E-3</v>
-      </c>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>1795477</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>110053</v>
       </c>
-      <c r="E18" s="37">
-        <f t="shared" si="0"/>
-        <v>5.2830525255038946E-3</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>260258</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="23">
         <v>6555</v>
       </c>
-      <c r="E19" s="37">
-        <f t="shared" si="0"/>
-        <v>3.1467028890332869E-4</v>
-      </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>237653</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>258978</v>
       </c>
-      <c r="E20" s="37">
-        <f t="shared" si="0"/>
-        <v>1.2432140668132152E-2</v>
-      </c>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>3322</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>25820</v>
       </c>
-      <c r="E21" s="37">
-        <f t="shared" si="0"/>
-        <v>1.2394793073202055E-3</v>
-      </c>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>3443</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>61776</v>
       </c>
-      <c r="E22" s="37">
-        <f t="shared" si="0"/>
-        <v>2.9655334503878006E-3</v>
-      </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>3498</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>153204</v>
       </c>
-      <c r="E23" s="37">
-        <f t="shared" si="0"/>
-        <v>7.3544999147437933E-3</v>
-      </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>3628</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>40485</v>
       </c>
-      <c r="E24" s="37">
-        <f t="shared" si="0"/>
-        <v>1.9434670703663251E-3</v>
-      </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>328316</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>171119</v>
       </c>
-      <c r="E25" s="37">
-        <f t="shared" si="0"/>
-        <v>8.2145026951714259E-3</v>
-      </c>
-      <c r="F25" s="34" t="s">
+      <c r="E25" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>317361</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>524793</v>
       </c>
-      <c r="E26" s="37">
-        <f t="shared" si="0"/>
-        <v>2.5192488928214275E-2</v>
-      </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>4177</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>98886</v>
       </c>
-      <c r="E27" s="37">
-        <f t="shared" si="0"/>
-        <v>4.7469849257810162E-3</v>
-      </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>4337</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>1434799</v>
       </c>
-      <c r="E28" s="37">
-        <f t="shared" si="0"/>
-        <v>6.8876981822762334E-2</v>
-      </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>4603</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>43174</v>
       </c>
-      <c r="E29" s="37">
-        <f t="shared" si="0"/>
-        <v>2.0725514955167524E-3</v>
-      </c>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>4832</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="15">
         <f>64528+3863</f>
         <v>68391</v>
       </c>
-      <c r="E30" s="37">
-        <f t="shared" si="0"/>
-        <v>3.2830840165350957E-3</v>
-      </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>4850</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="15">
         <v>132087</v>
       </c>
-      <c r="E31" s="37">
-        <f t="shared" si="0"/>
-        <v>6.3407863387298204E-3</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>377980</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="15">
         <f>22757+4716</f>
         <v>27473</v>
       </c>
-      <c r="E32" s="37">
-        <f t="shared" si="0"/>
-        <v>1.3188309453914795E-3</v>
-      </c>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>5093</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="15">
         <v>24111</v>
       </c>
-      <c r="E33" s="37">
-        <f t="shared" si="0"/>
-        <v>1.157439410487896E-3</v>
-      </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>5224</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <v>107136</v>
       </c>
-      <c r="E34" s="37">
-        <f t="shared" si="0"/>
-        <v>5.1430230468263952E-3</v>
-      </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>3423</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="15">
         <v>59705</v>
       </c>
-      <c r="E35" s="37">
-        <f t="shared" si="0"/>
-        <v>2.8661158808502272E-3</v>
-      </c>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>1605101</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <v>14420</v>
       </c>
-      <c r="E36" s="37">
-        <f t="shared" si="0"/>
-        <v>6.9222663096659028E-4</v>
-      </c>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>7213</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="15">
         <v>660880</v>
       </c>
-      <c r="E37" s="37">
-        <f t="shared" si="0"/>
-        <v>3.1725293749875191E-2</v>
-      </c>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>6130</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="15">
         <v>195036</v>
       </c>
-      <c r="E38" s="37">
-        <f t="shared" si="0"/>
-        <v>9.3626292092371648E-3</v>
-      </c>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>35827</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="15">
         <v>41068</v>
       </c>
-      <c r="E39" s="37">
-        <f t="shared" si="0"/>
-        <v>1.9714537642535322E-3</v>
-      </c>
-      <c r="F39" s="34"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>6185</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="15">
         <v>32574</v>
       </c>
-      <c r="E40" s="37">
-        <f t="shared" si="0"/>
-        <v>1.5637025157493559E-3</v>
-      </c>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="17">
         <v>1008377</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="18">
         <v>110125</v>
       </c>
-      <c r="E41" s="37">
-        <f t="shared" si="0"/>
-        <v>5.2865088581966549E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>237159</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="15">
         <v>19785</v>
       </c>
-      <c r="E42" s="37">
-        <f t="shared" si="0"/>
-        <v>9.4977142119791885E-4</v>
-      </c>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>6387</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="15">
         <v>59357</v>
       </c>
-      <c r="E43" s="37">
-        <f t="shared" si="0"/>
-        <v>2.849410272835222E-3</v>
-      </c>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>6470</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <v>122392</v>
       </c>
-      <c r="E44" s="37">
-        <f t="shared" si="0"/>
-        <v>5.8753815407255839E-3</v>
-      </c>
-      <c r="F44" s="34"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>6585</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="15">
         <v>123346</v>
       </c>
-      <c r="E45" s="37">
-        <f t="shared" si="0"/>
-        <v>5.9211779489046499E-3</v>
-      </c>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+      <c r="E45" s="29"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>6902</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="15">
         <v>455009</v>
       </c>
-      <c r="E46" s="37">
-        <f t="shared" si="0"/>
-        <v>2.1842534474998426E-2</v>
-      </c>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>6918</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="15">
         <v>15819</v>
       </c>
-      <c r="E47" s="37">
-        <f t="shared" si="0"/>
-        <v>7.5938509537174014E-4</v>
-      </c>
-      <c r="F47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>6960</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="15">
         <v>473386</v>
       </c>
-      <c r="E48" s="37">
-        <f t="shared" si="0"/>
-        <v>2.2724715390204601E-2</v>
-      </c>
-      <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>7052</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="15">
         <v>371343</v>
       </c>
-      <c r="E49" s="37">
-        <f t="shared" si="0"/>
-        <v>1.782617987677022E-2</v>
-      </c>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>7242</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="15">
         <v>669630</v>
       </c>
-      <c r="E50" s="37">
-        <f t="shared" si="0"/>
-        <v>3.2145334181286955E-2</v>
-      </c>
-      <c r="F50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>7396</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="15">
         <v>22334</v>
       </c>
-      <c r="E51" s="37">
-        <f t="shared" si="0"/>
-        <v>1.0721351994457578E-3</v>
-      </c>
-      <c r="F51" s="34"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>4917</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="15">
         <v>1679825</v>
       </c>
-      <c r="E52" s="37">
-        <f t="shared" si="0"/>
-        <v>8.0639362022430827E-2</v>
-      </c>
-      <c r="F52" s="34" t="s">
+      <c r="E52" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>7512</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="15">
         <v>83244</v>
       </c>
-      <c r="E53" s="37">
-        <f t="shared" si="0"/>
-        <v>3.9960966482789767E-3</v>
-      </c>
-      <c r="F53" s="34"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>26225</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="15">
         <v>813572</v>
       </c>
-      <c r="E54" s="37">
-        <f t="shared" si="0"/>
-        <v>3.9055215298803798E-2</v>
-      </c>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="9">
         <v>7806</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="15">
         <v>3661601</v>
       </c>
-      <c r="E55" s="37">
-        <f t="shared" si="0"/>
-        <v>0.17577376727974328</v>
-      </c>
-      <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>8163</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="15">
         <v>10855</v>
       </c>
-      <c r="E56" s="37">
-        <f t="shared" si="0"/>
-        <v>5.210901580542537E-4</v>
-      </c>
-      <c r="F56" s="34"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="9">
         <v>8591</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="15">
         <v>19324</v>
       </c>
-      <c r="E57" s="37">
-        <f t="shared" si="0"/>
-        <v>9.2764129104011041E-4</v>
-      </c>
-      <c r="F57" s="34"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
+      <c r="E57" s="29"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="9">
         <v>8745</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="15">
         <v>38343</v>
       </c>
-      <c r="E58" s="37">
-        <f t="shared" si="0"/>
-        <v>1.8406411727567248E-3</v>
-      </c>
-      <c r="F58" s="34"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>8782</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="15">
         <v>68113</v>
       </c>
-      <c r="E59" s="37">
-        <f t="shared" si="0"/>
-        <v>3.2697387319713844E-3</v>
-      </c>
-      <c r="F59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="9">
         <v>68139</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="15">
         <v>89281</v>
       </c>
-      <c r="E60" s="37">
-        <f t="shared" si="0"/>
-        <v>4.2859005436427285E-3</v>
-      </c>
-      <c r="F60" s="34"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="9">
         <v>36676</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="15">
         <v>335108</v>
       </c>
-      <c r="E61" s="37">
-        <f t="shared" si="0"/>
-        <v>1.6086732444518179E-2</v>
-      </c>
-      <c r="F61" s="34"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="10" t="s">
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="35">
+      <c r="B62" s="30">
         <v>1807639</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="31">
         <f>1810506+134267+88494+889801</f>
         <v>2923068</v>
       </c>
-      <c r="E62" s="37">
-        <f t="shared" si="0"/>
-        <v>0.14032077071610605</v>
-      </c>
-      <c r="F62" s="34" t="s">
+      <c r="E62" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="17"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="10" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="9">
         <v>10154</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="15">
         <v>82045</v>
       </c>
-      <c r="E63" s="37">
-        <f t="shared" si="0"/>
-        <v>3.9385391080203813E-3</v>
-      </c>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="10" t="s">
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="9">
         <v>10368</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="15">
         <v>17877</v>
       </c>
-      <c r="E64" s="37">
-        <f t="shared" si="0"/>
-        <v>8.5817860483978744E-4</v>
-      </c>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="10" t="s">
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>10454</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="15">
         <v>10941</v>
       </c>
-      <c r="E65" s="37">
-        <f t="shared" si="0"/>
-        <v>5.2521855543727217E-4</v>
-      </c>
-      <c r="F65" s="34"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="18" t="s">
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="45">
         <v>10691</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="18">
         <v>10511</v>
       </c>
-      <c r="E66" s="37">
-        <f t="shared" si="0"/>
-        <v>5.0457656852217971E-4</v>
-      </c>
-      <c r="F66" s="34"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="11">
         <v>11124</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="15">
         <v>28568</v>
       </c>
-      <c r="E67" s="37">
-        <f t="shared" si="0"/>
-        <v>1.3713960050938663E-3</v>
-      </c>
-      <c r="F67" s="34"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
+      <c r="E67" s="29"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="9">
         <v>11149</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="15">
         <v>12192</v>
       </c>
-      <c r="E68" s="37">
-        <f t="shared" si="0"/>
-        <v>5.8527233597397148E-4</v>
-      </c>
-      <c r="F68" s="34"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="E68" s="29"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="9">
         <v>71535</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="15">
         <v>31143</v>
       </c>
-      <c r="E69" s="37">
-        <f t="shared" si="0"/>
-        <v>1.4950079034807575E-3</v>
-      </c>
-      <c r="F69" s="34"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="6">
+      <c r="E69" s="29"/>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="7">
+        <v>116762002</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="7">
+        <v>116795008</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="42">
+        <v>116861002</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="7">
+        <v>116865006</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="7">
+        <v>180208003</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="7">
+        <v>33389009</v>
+      </c>
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="7">
+        <v>71493000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D78" s="4">
         <f>SUM(D7:D69)</f>
         <v>20831328</v>
       </c>
-      <c r="E70" s="32">
-        <f>SUM(E7:E69)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="F70" s="34"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="29"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="29"/>
+      <c r="E82" s="29"/>
     </row>
   </sheetData>
-  <sortState ref="I1:I4">
-    <sortCondition ref="I1"/>
+  <sortState ref="H1:H4">
+    <sortCondition ref="H1"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
+++ b/SuggestedLists/eMedications.03, dConfiguration.04, and dConfiguration.09 - Medications.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Users\jehlers\v3.5.0 Suggested Lists\Final Lists v3.5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NEMSIS\NEMSIS V3\Suggested Lists_Final for v3.5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D1C8E0-D35D-45F7-B290-B0F06C883A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC82B72-384C-4F8D-B3FE-F4B12AAB32FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recommendation" sheetId="3" r:id="rId1"/>
+    <sheet name="Change Log" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t>NOTES</t>
   </si>
@@ -249,9 +250,6 @@
     <t>Glucose 100 MG/ML Injection (Dextrose 10% per 500 ML)</t>
   </si>
   <si>
-    <t>Sodium choride 0.9% (9 MG/ML injection)</t>
-  </si>
-  <si>
     <t>Epinephrine 0.1 mg/ml (Epi 1:10,000)</t>
   </si>
   <si>
@@ -375,6 +373,9 @@
     <t>EMS DESCRIPTION (Brand Name)</t>
   </si>
   <si>
+    <t>Date Range Evaluated: 01/01/2017 through 07/09/2019</t>
+  </si>
+  <si>
     <t>SNOMED</t>
   </si>
   <si>
@@ -435,7 +436,41 @@
     <t>Includes spray, tab, paste</t>
   </si>
   <si>
-    <t>Includes Sodium Chloride Irrigation, Sodium Chloride 0.154 Injectable</t>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>EMS DESCRIPTION</t>
+  </si>
+  <si>
+    <t>RxNorm</t>
+  </si>
+  <si>
+    <t>RxNorm Description</t>
+  </si>
+  <si>
+    <t>Most Recent Update: 11/20/2020
+See Change Log tab for details</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 9 MG/ML Injectable Solution</t>
+  </si>
+  <si>
+    <t>Updated the RXNorm code from 1807639 to 313002 to reflect accurate EMS application. Updated RXNorm description to match the updated code.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Includes Sodium Chloride Irrigation, Sodium Chloride 0.154 Injectable; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11/20/20 Updated the RXNorm code from 1807639 to 313002 to reflect accurate EMS application. Updated RXNorm description to match the updated code.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -445,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +492,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,7 +638,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -947,60 +1005,61 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1019,10 +1078,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,14 +1090,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1067,18 +1130,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,17 +1198,17 @@
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1124,7 +1227,7 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Neutral 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1132,7 +1235,48 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1407,914 +1551,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="40"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="18"/>
+      <c r="D2" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="C3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="7">
+        <v>161</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="7">
+        <v>296</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="7">
+        <v>435</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7">
+        <v>214199</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7">
+        <v>703</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1191</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1223</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1901</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1908</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2193</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3264</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1795477</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7">
+        <v>260258</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7">
+        <v>237653</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3322</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3443</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3498</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3628</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="7">
+        <v>328316</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="7">
+        <v>317361</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4177</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4337</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4603</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4832</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4850</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5093</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5224</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3423</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1605101</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7213</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6130</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="7">
+        <v>35827</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="7">
+        <v>6185</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="15">
+        <v>1008377</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="7">
+        <v>237159</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="7">
+        <v>6387</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="7">
+        <v>6470</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6585</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6902</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="7">
+        <v>6918</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6960</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="7">
+        <v>7052</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7242</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="7">
+        <v>7396</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4917</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="7">
+        <v>7512</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="7">
+        <v>26225</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="7">
+        <v>7806</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8163</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8591</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8745</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="B58" s="7">
+        <v>8782</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="7">
+        <v>68139</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="7">
+        <v>36676</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="41">
+        <v>313002</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="7">
+        <v>10154</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="7">
+        <v>10368</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="7">
+        <v>10454</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="33">
+        <v>10691</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="9">
+        <v>11124</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="7">
+        <v>11149</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="7">
+        <v>71535</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="6">
-        <v>161</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="6">
-        <v>296</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="6">
-        <v>435</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="6">
-        <v>214199</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="6">
-        <v>703</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1191</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1223</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1901</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1908</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2193</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3264</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1795477</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="6">
-        <v>260258</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="6">
-        <v>237653</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="6">
-        <v>3322</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3443</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="6">
-        <v>3498</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3628</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="6">
-        <v>328316</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="6">
-        <v>317361</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="6">
-        <v>4177</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="6">
-        <v>4337</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="6">
-        <v>4603</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="6">
-        <v>4832</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="6">
-        <v>4850</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="6">
-        <v>5093</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="6">
-        <v>5224</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="6">
-        <v>3423</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1605101</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="6">
-        <v>7213</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="6">
-        <v>6130</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="6">
-        <v>35827</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="6">
-        <v>6185</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="14">
-        <v>1008377</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="6">
-        <v>237159</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="6">
-        <v>6387</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="6">
-        <v>6470</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6585</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="6">
-        <v>6902</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="6">
-        <v>6918</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="6">
-        <v>6960</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="6">
-        <v>7052</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="6">
-        <v>7242</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="6">
-        <v>7396</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="6">
-        <v>4917</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="6">
-        <v>7512</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="6">
-        <v>26225</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="6">
-        <v>7806</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="6">
-        <v>8163</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="6">
-        <v>8591</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="6">
-        <v>8745</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="6">
-        <v>8782</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="6">
-        <v>68139</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="6">
-        <v>36676</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="21">
-        <v>1807639</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="6">
-        <v>10154</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="6">
-        <v>10368</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="6">
-        <v>10454</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="30">
-        <v>10691</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="8">
-        <v>11124</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="6">
-        <v>11149</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="6">
-        <v>71535</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B70" s="5">
         <v>116762002</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>118</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B71" s="5">
         <v>116795008</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+    <row r="72" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B72" s="31">
         <v>116861002</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C72" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B73" s="5">
         <v>116865006</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B74" s="5">
         <v>180208003</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B75" s="5">
         <v>33389009</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B76" s="5">
         <v>71493000</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="G1:G2">
+  <sortState ref="G1:G4">
     <sortCondition ref="G1"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="112.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>44155</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="43">
+        <v>313002</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="36"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>